--- a/biology/Biochimie/Ninhydrine/Ninhydrine.xlsx
+++ b/biology/Biochimie/Ninhydrine/Ninhydrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ninhydrine ou nihydrine (2,2-dihydroxyindan-1,3-dione) est un composé aromatique utilisé comme révélateur des acides aminés dans le réactif du même nom en microbiologie (cupule HIP des galeries API).
@@ -517,7 +529,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ninhydrine permet de révéler des traces digitales sur des surfaces poreuses et claires (papiers et cartons) grâce à la réaction avec les acides aminés contenus dans l'empreinte pour former une zone de couleur pourpre. On place l'objet contenant l'empreinte dans un bain chimique, puis dans une étuve pour la sécher. La réaction est plus lente (et peut prendre des semaines pour des traces anciennes), d'où l'utilisation de techniques alternatives de dactyloscopie.
 La ninhydrine est également utilisée comme révélateur pour la chromatographie sur couche mince (CCM) dans le cas d'une analyse protéique (en solution à 0,2 % dans l'éthanol).
